--- a/data/trans_dic/AIRE_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,16; 91,01</t>
+          <t>83,64; 90,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,16; 92,41</t>
+          <t>86,81; 92,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,71; 90,83</t>
+          <t>86,91; 91,3</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,0; 77,87</t>
+          <t>72,05; 78,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,9; 82,69</t>
+          <t>72,97; 83,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,43; 79,67</t>
+          <t>73,43; 79,71</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>53,32; 64,35</t>
+          <t>53,39; 64,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>61,83; 70,83</t>
+          <t>61,96; 71,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>59,41; 66,57</t>
+          <t>59,57; 66,43</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>71,47; 76,18</t>
+          <t>71,56; 76,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>75,72; 82,07</t>
+          <t>75,28; 81,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,33; 78,58</t>
+          <t>74,33; 78,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/AIRE_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,64; 90,94</t>
+          <t>83,16; 91,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,81; 92,09</t>
+          <t>87,16; 92,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,91; 91,3</t>
+          <t>86,71; 90,83</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,05; 78,2</t>
+          <t>72,0; 77,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,97; 83,15</t>
+          <t>72,9; 82,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,43; 79,71</t>
+          <t>73,43; 79,67</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>53,39; 64,69</t>
+          <t>53,32; 64,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>61,96; 71,16</t>
+          <t>61,83; 70,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>59,57; 66,43</t>
+          <t>59,41; 66,57</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>71,56; 76,05</t>
+          <t>71,47; 76,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>75,28; 81,77</t>
+          <t>75,72; 82,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,33; 78,36</t>
+          <t>74,33; 78,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/AIRE_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>87,59%</t>
+          <t>87,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>90,06%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>89,08%</t>
+          <t>89,02%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,16; 91,01</t>
+          <t>83,07; 90,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,16; 92,41</t>
+          <t>87,3; 92,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,71; 90,83</t>
+          <t>86,63; 90,81</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>74,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76,71%</t>
+          <t>76,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>75,88%</t>
+          <t>75,72%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>72,0; 77,87</t>
+          <t>70,9; 77,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,9; 82,69</t>
+          <t>69,94; 86,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,43; 79,67</t>
+          <t>71,68; 82,38</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>58,93%</t>
+          <t>59,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>66,96%</t>
+          <t>66,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>63,01%</t>
+          <t>63,41%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>53,32; 64,35</t>
+          <t>54,22; 65,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>61,83; 70,83</t>
+          <t>61,84; 70,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>59,41; 66,57</t>
+          <t>59,89; 67,04</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>73,85%</t>
+          <t>73,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>75,98%</t>
+          <t>75,86%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>71,47; 76,18</t>
+          <t>71,09; 75,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>75,72; 82,07</t>
+          <t>73,92; 84,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,33; 78,58</t>
+          <t>73,37; 80,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/AIRE_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,07; 90,92</t>
+          <t>83,16; 90,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,3; 92,45</t>
+          <t>87,26; 92,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,63; 90,81</t>
+          <t>86,54; 90,84</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>70,9; 77,46</t>
+          <t>70,82; 77,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>69,94; 86,33</t>
+          <t>70,57; 86,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,68; 82,38</t>
+          <t>71,91; 81,9</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>54,22; 65,56</t>
+          <t>54,41; 66,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>61,84; 70,87</t>
+          <t>62,31; 71,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>59,89; 67,04</t>
+          <t>59,84; 67,56</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>71,09; 75,98</t>
+          <t>71,08; 75,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>73,92; 84,44</t>
+          <t>73,39; 84,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>73,37; 80,67</t>
+          <t>73,44; 79,82</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no está dispuesta a pagar para reducir la contaminación del aire (impuesto durante 5 años)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>223266</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>343313</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>566579</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>212282; 231471</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>332637; 351810</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>550809; 578161</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1908</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>799568</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>924661</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1724229</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>761390; 832746</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>848303; 1036849</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1637570; 1865030</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>194245</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>215692</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>409938</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>176181; 214707</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>201053; 229295</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>386819; 436775</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3417</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1217080</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1483665</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2700745</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1175781; 1255903</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1398745; 1608013</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2614408; 2841450</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>